--- a/uploads/F23_T100_PRF_Purdue.xlsx
+++ b/uploads/F23_T100_PRF_Purdue.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashwat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB3599F-EA6E-294B-8D39-FFAAE364E2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE490DE4-9858-EE43-9E0E-D87904EA3F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020" xr2:uid="{DA1497EA-2EB3-0E49-8B22-F2B5E5A5977F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Item #</t>
   </si>
@@ -92,7 +92,10 @@
     <t>Team 100</t>
   </si>
   <si>
-    <t>pizza</t>
+    <t>hdmi cable</t>
+  </si>
+  <si>
+    <t>purdue.edu</t>
   </si>
 </sst>
 </file>
@@ -564,21 +567,102 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,103 +675,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,317 +1012,332 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="9">
         <v>11</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="11">
         <v>10</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="12">
         <f>D5*E5</f>
         <v>10</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="G5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="16">
         <v>22</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="17">
         <v>20</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="18">
         <f t="shared" ref="F6:F16" si="0">D6*E6</f>
         <v>20</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="G6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="14">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="16">
         <v>33</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="17">
         <v>30</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="14">
+        <v>45263</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32">
-        <v>0</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="29"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="B12" s="20"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33">
+      <c r="B13" s="20"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32">
-        <v>0</v>
-      </c>
-      <c r="F14" s="33">
+      <c r="B14" s="20"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33">
+      <c r="B15" s="20"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="29"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32">
-        <v>0</v>
-      </c>
-      <c r="F16" s="33">
+      <c r="B16" s="20"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="22">
         <f>SUM(F5:F16)</f>
         <v>60</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="42"/>
+      <c r="H17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1333,5 +1351,6 @@
     <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>